--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-426396.3737290179</v>
+        <v>-428877.2935544771</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>27.78392653227462</v>
+        <v>57.36820351377827</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579961</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104948</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717756</v>
@@ -1430,7 +1430,7 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>108.752321159184</v>
       </c>
       <c r="D13" t="n">
         <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292098</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184865</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.9558119137426</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>40.71072521252393</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
@@ -1670,7 +1670,7 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>3.565780149279647</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689272</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>107.0733734269356</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>16.71003029667605</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184865</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>274.4057272493083</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>336.9550866703247</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432823</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>214.2140663782827</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>220.6411254041911</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>201.592615365978</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>275.0274093258353</v>
       </c>
       <c r="X22" t="n">
-        <v>214.2140663782821</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948578</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782812</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007103</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.3541982182248</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010755</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846436</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092342</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621597</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333709</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957232</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084862</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429027</v>
@@ -3509,7 +3509,7 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136066</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007103</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.3541982182248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>90.95618068285746</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092342</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621597</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333709</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480644</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>143.0438109257877</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>230.7340562419016</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>110.5480262953168</v>
       </c>
       <c r="H46" t="n">
-        <v>89.27723295060972</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1824.291354772201</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1482.520905091513</v>
+        <v>797.5365442767278</v>
       </c>
       <c r="D11" t="n">
-        <v>1151.447273744487</v>
+        <v>797.5365442767278</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>739.58886395978</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597798</v>
+        <v>739.58886395978</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299073</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039933</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573493</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489646</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.512310489646</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.23861948829</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1824.291354772201</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,13 +5133,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2692096237417</v>
+        <v>418.3126375609356</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555585</v>
+        <v>308.4618081072141</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029464</v>
+        <v>185.537235954602</v>
       </c>
       <c r="E13" t="n">
-        <v>515.879495480277</v>
+        <v>185.537235954602</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162334</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547702</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.966681601538</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.741578824301</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X13" t="n">
-        <v>1161.741578824301</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.725607194258</v>
+        <v>572.7690351314517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1481.978886828185</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.978886828185</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F14" t="n">
         <v>739.5888639597802</v>
@@ -5270,58 +5270,58 @@
         <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299107</v>
+        <v>81.3169479329911</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039934</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573493</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489647</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479256</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.333924348671</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1841.386659632583</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.5255757144344</v>
+        <v>418.3126375609354</v>
       </c>
       <c r="C16" t="n">
-        <v>533.7814600462511</v>
+        <v>310.157714907465</v>
       </c>
       <c r="D16" t="n">
-        <v>533.7814600462511</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E16" t="n">
-        <v>413.0604337235817</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420907</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765333</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
@@ -5440,7 +5440,7 @@
         <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5452,34 +5452,34 @@
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145083</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1976.008292145083</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1714.097492530451</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1486.605071584288</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1224.379968807051</v>
+        <v>967.1670306535516</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.582485168757</v>
+        <v>766.3695470152579</v>
       </c>
       <c r="Y16" t="n">
-        <v>829.9819732849504</v>
+        <v>572.7690351314515</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1554.553025807112</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1554.553025807112</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>940.959242410435</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>629.8126900199877</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8126900199877</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,13 +5513,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.269774201191</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.380997682825</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2758.959810547051</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.832855484734</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.008797431452</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1866.511165663437</v>
+        <v>1830.862197398328</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,25 +5595,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671182</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625795</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604102</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5674,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088442</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865765</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201116</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454038</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.696340267698</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.375523535084</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446367</v>
+        <v>629.8126900199871</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628261</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5753,49 +5753,49 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2776.103125007638</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2497.976169945321</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2199.152111892038</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1883.654480124023</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872281</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671182</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604103</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5947,13 +5947,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454039</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096708</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5996,22 +5996,22 @@
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516337</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575119</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3296.525057137383</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893065</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
@@ -6026,7 +6026,7 @@
         <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
         <v>2489.641748681291</v>
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.987417377527</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574171</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633998</v>
+        <v>96.06173179634007</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453176</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259231</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357028</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999697</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388314</v>
@@ -6215,43 +6215,43 @@
         <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N26" t="n">
-        <v>2580.208754682581</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641922</v>
@@ -6260,10 +6260,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,16 +6418,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,25 +6464,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>665.7404053951323</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1116.774618643541</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929623</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737236</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6491,10 +6491,10 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,7 +6582,7 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965683</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6619,16 +6619,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,25 +6701,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M32" t="n">
-        <v>1662.351466305505</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532152</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411489</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668177</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960653</v>
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7020,19 +7020,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647798</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368729</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983804</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898306</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919202</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7099,7 +7099,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
         <v>976.3387758760405</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236857</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388401</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953099</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
@@ -7208,16 +7208,16 @@
         <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>796.9451341124663</v>
+        <v>543.5641013650708</v>
       </c>
       <c r="C40" t="n">
-        <v>628.0089511845595</v>
+        <v>473.2993530110072</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722237</v>
+        <v>323.1827135986714</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898306</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919202</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7336,7 +7336,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
         <v>976.3387758760405</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236857</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912683</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429965</v>
+        <v>725.2125661953105</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7418,7 +7418,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,16 +7427,16 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7445,7 +7445,7 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
@@ -7464,70 +7464,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647792</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C43" t="n">
-        <v>529.3375166107157</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D43" t="n">
-        <v>477.8923117722234</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6506527636736</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941185</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U43" t="n">
-        <v>1478.120214357884</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V43" t="n">
-        <v>1223.435726151997</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.68999068888</v>
+        <v>835.3471215411935</v>
       </c>
       <c r="X43" t="n">
-        <v>804.7004397908623</v>
+        <v>706.0290052170194</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211756</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7676,22 +7676,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389145</v>
+        <v>444.8926667912274</v>
       </c>
       <c r="C46" t="n">
-        <v>571.970787584851</v>
+        <v>374.6279184371638</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725152</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E46" t="n">
-        <v>273.9410545901221</v>
+        <v>273.9410545901218</v>
       </c>
       <c r="F46" t="n">
-        <v>225.7225416660552</v>
+        <v>225.7225416660548</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146175</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891715</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649976</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953108</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.2353108430633</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729013</v>
+        <v>184.4039433729011</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938961</v>
+        <v>191.4948909389608</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333074</v>
+        <v>181.0856325333071</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830248</v>
+        <v>179.3553748830245</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383997</v>
+        <v>182.8301554383994</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586591</v>
+        <v>190.8908035586588</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266127</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372537</v>
+        <v>113.6031223372535</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672279</v>
+        <v>105.9629718672277</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253599</v>
+        <v>104.1013981253596</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677712</v>
+        <v>92.30246558677689</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359741</v>
+        <v>106.8829608359739</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798328</v>
+        <v>105.3113487798326</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.4284123140779</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.5080856662706</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784337</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.098005505452</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>274.8351763665427</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>105.7385611944686</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>62.52018570663756</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>28.65608477603689</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>122.1718867553225</v>
       </c>
       <c r="M32" t="n">
-        <v>74.68679478748572</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>327.2262969528608</v>
+        <v>297.6420199713571</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.5743533523174</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.70869485122577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>287.0521698210326</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>339.245173942063</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.25330108456585</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.7908711391288</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.38203116565565</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.07135577740973531</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245671</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3396371318014</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>52.26435989843785</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997687.8244869746</v>
+        <v>997687.8244869751</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997687.8244869749</v>
+        <v>997687.8244869751</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868152</v>
       </c>
       <c r="C2" t="n">
         <v>327710.5354868153</v>
       </c>
       <c r="D2" t="n">
-        <v>327719.4679223785</v>
+        <v>327719.4679223784</v>
       </c>
       <c r="E2" t="n">
-        <v>291816.0003619898</v>
+        <v>291816.00036199</v>
       </c>
       <c r="F2" t="n">
-        <v>291816.0003619899</v>
+        <v>291816.00036199</v>
       </c>
       <c r="G2" t="n">
-        <v>317812.3284986144</v>
+        <v>317812.3284986143</v>
       </c>
       <c r="H2" t="n">
-        <v>317812.3284986142</v>
+        <v>317812.3284986143</v>
       </c>
       <c r="I2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="J2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="K2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552196</v>
+        <v>59764.55367552233</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487447</v>
+        <v>37580.10929487409</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983357</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179687</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487415</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927244</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434266</v>
+        <v>435086.1724434265</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866206</v>
+        <v>40634.10590866202</v>
       </c>
       <c r="F4" t="n">
         <v>40634.10590866202</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.2662701043</v>
+        <v>77662.26627010429</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010433</v>
+        <v>77662.26627010429</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.68494905927</v>
+        <v>91903.68494905924</v>
       </c>
       <c r="J4" t="n">
+        <v>91012.35309462828</v>
+      </c>
+      <c r="K4" t="n">
         <v>91012.35309462826</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>91012.35309462821</v>
       </c>
-      <c r="L4" t="n">
-        <v>91012.35309462823</v>
-      </c>
       <c r="M4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="O4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="P4" t="n">
         <v>92793.84288319403</v>
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482639</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521492</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163692.4253387221</v>
+        <v>-163696.8389165904</v>
       </c>
       <c r="C6" t="n">
-        <v>-163692.4253387222</v>
+        <v>-163696.8389165903</v>
       </c>
       <c r="D6" t="n">
-        <v>-202280.1636284365</v>
+        <v>-202284.5213785826</v>
       </c>
       <c r="E6" t="n">
-        <v>-914626.5680751309</v>
+        <v>-914855.3224975293</v>
       </c>
       <c r="F6" t="n">
-        <v>174612.4040885013</v>
+        <v>174383.6496661033</v>
       </c>
       <c r="G6" t="n">
-        <v>122051.3098084207</v>
+        <v>121985.0324368767</v>
       </c>
       <c r="H6" t="n">
-        <v>159631.4191032951</v>
+        <v>159565.1417317508</v>
       </c>
       <c r="I6" t="n">
-        <v>127955.0268649785</v>
+        <v>127955.0268649783</v>
       </c>
       <c r="J6" t="n">
-        <v>122616.980154482</v>
+        <v>122616.9801544821</v>
       </c>
       <c r="K6" t="n">
-        <v>148026.4131762789</v>
+        <v>148026.413176279</v>
       </c>
       <c r="L6" t="n">
-        <v>110446.3038814051</v>
+        <v>110446.303881405</v>
       </c>
       <c r="M6" t="n">
-        <v>-49063.83223645494</v>
+        <v>-49063.83223645489</v>
       </c>
       <c r="N6" t="n">
-        <v>153104.2677562693</v>
+        <v>153104.2677562697</v>
       </c>
       <c r="O6" t="n">
         <v>153104.2677562695</v>
       </c>
       <c r="P6" t="n">
-        <v>153104.2677562695</v>
+        <v>153104.2677562696</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790545</v>
+        <v>69.78465283790588</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951226</v>
+        <v>50.7095836095124</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790545</v>
+        <v>69.78465283790588</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873682</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036573</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672113</v>
+        <v>84.2286184667211</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698753</v>
+        <v>90.83829126987524</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519096</v>
+        <v>84.4622088851909</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990534</v>
+        <v>7.649035050990445</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317066</v>
+        <v>75.62456067317059</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075446</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="X22" t="n">
-        <v>11.49558901075503</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075505</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859114</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.47778196371247</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810481</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810481</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810481</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810481</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.47778196371247</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>55.47778196371171</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810481</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810481</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810481</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565421</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U43" t="n">
-        <v>55.47778196371129</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371145</v>
       </c>
       <c r="H46" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413282</v>
+        <v>0.28054131794133</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366629</v>
+        <v>2.873093772366646</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993307</v>
+        <v>10.81556915993313</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362283</v>
+        <v>23.81059368362298</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207926</v>
+        <v>35.68590767207948</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310262</v>
+        <v>44.27152403102647</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396529</v>
+        <v>49.26060069396559</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356609</v>
+        <v>50.0576887135664</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328701</v>
+        <v>47.2680559832873</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661046</v>
+        <v>40.3421921966107</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783663</v>
+        <v>30.29530624783682</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313198</v>
+        <v>17.62255356313208</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588024</v>
+        <v>6.392835282588063</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288165</v>
+        <v>1.228069619288173</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530626</v>
+        <v>0.02244330543530639</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796457</v>
+        <v>0.1501028381796466</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840263</v>
+        <v>1.449677410840271</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693943</v>
+        <v>5.168014384693974</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906907</v>
+        <v>14.18142647906916</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710533</v>
+        <v>24.23831663710548</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264632</v>
+        <v>32.59140791264652</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665847</v>
+        <v>38.0326357966587</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655619</v>
+        <v>39.03924649655642</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847035</v>
+        <v>35.71328360847057</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449744</v>
+        <v>28.66305863449761</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447548</v>
+        <v>19.16049562447559</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767831</v>
+        <v>9.319542882767887</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608768</v>
+        <v>2.788094384608785</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890102</v>
+        <v>0.605019773189014</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345115</v>
+        <v>0.009875186722345176</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248682</v>
+        <v>0.1258411772486827</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11884246681101</v>
+        <v>1.118842466811016</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078546</v>
+        <v>3.784387403078569</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481814</v>
+        <v>8.896971231481867</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489232</v>
+        <v>14.62045677489241</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477223</v>
+        <v>18.70915102477234</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908203</v>
+        <v>19.72617653908214</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115513</v>
+        <v>19.25713215115525</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875007</v>
+        <v>17.78707839875018</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287695</v>
+        <v>15.21991838287704</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852372</v>
+        <v>10.53748257852379</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381644</v>
+        <v>5.658276933381678</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233847</v>
+        <v>2.193068516233861</v>
       </c>
       <c r="T10" t="n">
-        <v>0.53768503006255</v>
+        <v>0.5376850300625533</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564478</v>
+        <v>0.00686406421356452</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019256</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806101</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546663</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322367</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086605</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.1510063936711</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>782.8881772547618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>504.5005474138404</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.608516012075</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>399.7114722620381</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>536.709085664256</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
@@ -37069,16 +37069,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>577.7620011476547</v>
       </c>
       <c r="M32" t="n">
-        <v>613.6079106177125</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037218</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129133</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,7 +37795,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
